--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,35 +418,49 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Vishak Kavalur</v>
+        <v>Parmida Beigi</v>
       </c>
       <c r="B2" t="str">
-        <v>Intuit</v>
+        <v>Meta</v>
       </c>
       <c r="C2" t="str">
-        <v>SDE 1</v>
+        <v>https://www.metacareers.com/profile/job_details/1503103504068487</v>
       </c>
       <c r="D2" t="str">
-        <v>17vishak@gmail.com</v>
+        <v>parmidab86@gmail.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Vishak Kavalur</v>
+        <v>Parmida Beigi</v>
       </c>
       <c r="B3" t="str">
-        <v>Intuit</v>
+        <v>Meta</v>
       </c>
       <c r="C3" t="str">
-        <v>SDE 1</v>
+        <v>https://www.metacareers.com/profile/job_details/1503103504068488</v>
       </c>
       <c r="D3" t="str">
-        <v>vishak_kavalur@intuit.com</v>
+        <v>parmidabgi@gmail.com</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Parmida Beigi</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://www.metacareers.com/profile/job_details/1503103504068489</v>
+      </c>
+      <c r="D4" t="str">
+        <v>pbeigi@fb.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,49 +418,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Parmida Beigi</v>
+        <v>Ankita J.</v>
       </c>
       <c r="B2" t="str">
-        <v>Meta</v>
+        <v>Media.Net</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.metacareers.com/profile/job_details/1503103504068487</v>
+        <v>SDE 1</v>
       </c>
       <c r="D2" t="str">
-        <v>parmidab86@gmail.com</v>
+        <v>ankitajedi@gmail.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Parmida Beigi</v>
+        <v>Ankita J.</v>
       </c>
       <c r="B3" t="str">
-        <v>Meta</v>
+        <v>Media.Net</v>
       </c>
       <c r="C3" t="str">
-        <v>https://www.metacareers.com/profile/job_details/1503103504068488</v>
+        <v>SDE 1</v>
       </c>
       <c r="D3" t="str">
-        <v>parmidabgi@gmail.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Parmida Beigi</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Meta</v>
-      </c>
-      <c r="C4" t="str">
-        <v>https://www.metacareers.com/profile/job_details/1503103504068489</v>
-      </c>
-      <c r="D4" t="str">
-        <v>pbeigi@fb.com</v>
+        <v>ankita.j@media.net</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>